--- a/medicine/Soins infirmiers et profession infirmière/1982_en_santé_et_médecine/1982_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1982_en_santé_et_médecine/1982_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1982_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1982_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1982 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1982_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1982_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5 mai : accident à la centrale nucléaire de Monticello aux États-Unis, au cours duquel de l'eau radioactive est rejetée dans le Mississippi puis dans le système d'arrivée d'eau de Saint-Paul « sans menace pour la santé publique[1] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5 mai : accident à la centrale nucléaire de Monticello aux États-Unis, au cours duquel de l'eau radioactive est rejetée dans le Mississippi puis dans le système d'arrivée d'eau de Saint-Paul « sans menace pour la santé publique ».
 4 octobre : Glenn Gould meurt d'un accident vasculaire cérébral à l'hôpital de Toronto.</t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1982_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1982_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,16 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>15 mars : Hans Wilhelm Bansi (né en 1899), endocrinologue allemand, spécialiste de la thyroïde.
 12 septembre : Joseph Berkson (né en 1899), médecin, physicien et statisticien américain.
 16 octobre : Hans Selye (né en 1907), endocrinologue canadien d'origine autrichienne.
 16 septembre : Marcel Martiny (né en 1897, médecin français, spécialiste de la biotypologie.
 Date inconnue
-Anna Guggenbühl, dite Anna G. (née en 1896), psychiatre, patiente de Freud en 1921[2],[3].
+Anna Guggenbühl, dite Anna G. (née en 1896), psychiatre, patiente de Freud en 1921,.
 Henri Nouvion (né en 1900), médecin français.
 Albano Paulo (né en 1906, radiologue et footballeur portugais.</t>
         </is>
